--- a/exe/TSV/Excel/W19_Akayamacho_UIList.xlsx
+++ b/exe/TSV/Excel/W19_Akayamacho_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C8F94E-6398-4CFA-989C-B9F2CEDEEA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9D3910-8385-4095-A068-5F6A297DA459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="3780" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7170" yWindow="4905" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W19_赤山町駅_UIList" sheetId="1" r:id="rId1"/>
@@ -979,22 +979,22 @@
     <t>9LT_2</t>
   </si>
   <si>
-    <t>10LT_1</t>
-  </si>
-  <si>
-    <t>10LT_2</t>
-  </si>
-  <si>
-    <t>10LT_10L_1</t>
-  </si>
-  <si>
-    <t>10LT_10L_2</t>
-  </si>
-  <si>
-    <t>10LT_10R_1</t>
-  </si>
-  <si>
-    <t>10LT_10R_2</t>
+    <t>AS1T_1</t>
+  </si>
+  <si>
+    <t>AS1T_2</t>
+  </si>
+  <si>
+    <t>AS1T_10L_1</t>
+  </si>
+  <si>
+    <t>AS1T_10L_2</t>
+  </si>
+  <si>
+    <t>AS1T_10R_1</t>
+  </si>
+  <si>
+    <t>AS1T_10R_2</t>
   </si>
   <si>
     <t>DT_1</t>
@@ -1938,8 +1938,8 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="8">
-        <v>680</v>
+      <c r="G8" s="12">
+        <v>682</v>
       </c>
       <c r="H8" s="8">
         <v>243</v>
@@ -1989,8 +1989,8 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="8">
-        <v>738</v>
+      <c r="G9" s="12">
+        <v>740</v>
       </c>
       <c r="H9" s="8">
         <v>323</v>
@@ -2040,8 +2040,8 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="8">
-        <v>738</v>
+      <c r="G10" s="12">
+        <v>740</v>
       </c>
       <c r="H10" s="8">
         <v>403</v>
@@ -2091,8 +2091,8 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="8">
-        <v>1034</v>
+      <c r="G11" s="12">
+        <v>1036</v>
       </c>
       <c r="H11" s="8">
         <v>243</v>
@@ -2142,8 +2142,8 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="8">
-        <v>1034</v>
+      <c r="G12" s="12">
+        <v>1036</v>
       </c>
       <c r="H12" s="8">
         <v>323</v>
@@ -2193,8 +2193,8 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="8">
-        <v>1092</v>
+      <c r="G13" s="12">
+        <v>1094</v>
       </c>
       <c r="H13" s="12">
         <v>403</v>
@@ -2348,8 +2348,8 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="8">
-        <v>976</v>
+      <c r="G16" s="12">
+        <v>978</v>
       </c>
       <c r="H16" s="8">
         <v>243</v>
@@ -2401,8 +2401,8 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="8">
-        <v>1287</v>
+      <c r="G17" s="12">
+        <v>1289</v>
       </c>
       <c r="H17" s="8">
         <v>183</v>
@@ -2452,8 +2452,8 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="8">
-        <v>1287</v>
+      <c r="G18" s="12">
+        <v>1289</v>
       </c>
       <c r="H18" s="8">
         <v>243</v>
@@ -2503,8 +2503,8 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="8">
-        <v>462</v>
+      <c r="G19" s="12">
+        <v>463</v>
       </c>
       <c r="H19" s="8">
         <v>336</v>
@@ -2554,8 +2554,8 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="8">
-        <v>932</v>
+      <c r="G20" s="12">
+        <v>934</v>
       </c>
       <c r="H20" s="8">
         <v>256</v>
@@ -2605,8 +2605,8 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="8">
-        <v>990</v>
+      <c r="G21" s="12">
+        <v>992</v>
       </c>
       <c r="H21" s="8">
         <v>336</v>
@@ -2656,8 +2656,8 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="8">
-        <v>1048</v>
+      <c r="G22" s="12">
+        <v>1050</v>
       </c>
       <c r="H22" s="8">
         <v>416</v>
@@ -2708,7 +2708,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="12">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="H23" s="12">
         <v>196</v>
@@ -2759,7 +2759,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="12">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="H24" s="12">
         <v>256</v>
@@ -2809,8 +2809,8 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="8">
-        <v>1355</v>
+      <c r="G25" s="12">
+        <v>1356</v>
       </c>
       <c r="H25" s="8">
         <v>336</v>
@@ -2860,8 +2860,8 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="8">
-        <v>555</v>
+      <c r="G26" s="12">
+        <v>557</v>
       </c>
       <c r="H26" s="8">
         <v>64</v>
@@ -2913,8 +2913,8 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="8">
-        <v>553</v>
+      <c r="G27" s="12">
+        <v>555</v>
       </c>
       <c r="H27" s="8">
         <v>45</v>
@@ -2963,7 +2963,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="12">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H28" s="8">
         <v>45</v>
@@ -3009,8 +3009,8 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="8">
-        <v>623</v>
+      <c r="G29" s="12">
+        <v>625</v>
       </c>
       <c r="H29" s="8">
         <v>64</v>
@@ -3060,8 +3060,8 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="8">
-        <v>621</v>
+      <c r="G30" s="12">
+        <v>623</v>
       </c>
       <c r="H30" s="8">
         <v>45</v>
@@ -3108,7 +3108,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="12">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H31" s="8">
         <v>45</v>
@@ -3154,8 +3154,8 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="8">
-        <v>1115</v>
+      <c r="G32" s="12">
+        <v>1117</v>
       </c>
       <c r="H32" s="8">
         <v>64</v>
@@ -3205,8 +3205,8 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="8">
-        <v>1113</v>
+      <c r="G33" s="12">
+        <v>1115</v>
       </c>
       <c r="H33" s="8">
         <v>45</v>
@@ -3252,8 +3252,8 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="8">
-        <v>1147</v>
+      <c r="G34" s="12">
+        <v>1149</v>
       </c>
       <c r="H34" s="8">
         <v>45</v>
@@ -3299,8 +3299,8 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="8">
-        <v>1183</v>
+      <c r="G35" s="12">
+        <v>1185</v>
       </c>
       <c r="H35" s="8">
         <v>64</v>
@@ -3350,8 +3350,8 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="8">
-        <v>1181</v>
+      <c r="G36" s="12">
+        <v>1183</v>
       </c>
       <c r="H36" s="8">
         <v>45</v>
@@ -3397,8 +3397,8 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="8">
-        <v>1215</v>
+      <c r="G37" s="12">
+        <v>1217</v>
       </c>
       <c r="H37" s="8">
         <v>45</v>
@@ -3444,8 +3444,8 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="8">
-        <v>1251</v>
+      <c r="G38" s="12">
+        <v>1253</v>
       </c>
       <c r="H38" s="8">
         <v>64</v>
@@ -3495,8 +3495,8 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="8">
-        <v>1249</v>
+      <c r="G39" s="12">
+        <v>1251</v>
       </c>
       <c r="H39" s="8">
         <v>45</v>
@@ -3542,8 +3542,8 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="8">
-        <v>1283</v>
+      <c r="G40" s="12">
+        <v>1285</v>
       </c>
       <c r="H40" s="8">
         <v>45</v>
@@ -3589,7 +3589,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="8">
+      <c r="G41" s="12">
         <v>1729</v>
       </c>
       <c r="H41" s="8">
@@ -3983,8 +3983,8 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="8">
-        <v>644</v>
+      <c r="G49" s="12">
+        <v>646</v>
       </c>
       <c r="H49" s="12">
         <v>249</v>
@@ -4030,8 +4030,8 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="8">
-        <v>702</v>
+      <c r="G50" s="12">
+        <v>704</v>
       </c>
       <c r="H50" s="8">
         <v>359</v>
@@ -4077,8 +4077,8 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="8">
-        <v>702</v>
+      <c r="G51" s="12">
+        <v>704</v>
       </c>
       <c r="H51" s="8">
         <v>439</v>
@@ -4124,8 +4124,8 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="8">
-        <v>1111</v>
+      <c r="G52" s="12">
+        <v>1113</v>
       </c>
       <c r="H52" s="8">
         <v>241</v>
@@ -4171,8 +4171,8 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="8">
-        <v>1100</v>
+      <c r="G53" s="12">
+        <v>1102</v>
       </c>
       <c r="H53" s="12">
         <v>329</v>
@@ -4218,8 +4218,8 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="8">
-        <v>1158</v>
+      <c r="G54" s="12">
+        <v>1160</v>
       </c>
       <c r="H54" s="8">
         <v>439</v>
@@ -4312,8 +4312,8 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="8">
-        <v>1093</v>
+      <c r="G56" s="12">
+        <v>1095</v>
       </c>
       <c r="H56" s="8">
         <v>240</v>
@@ -4359,8 +4359,8 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="8">
-        <v>1258</v>
+      <c r="G57" s="12">
+        <v>1260</v>
       </c>
       <c r="H57" s="8">
         <v>223</v>
@@ -4406,8 +4406,8 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="8">
-        <v>1258</v>
+      <c r="G58" s="12">
+        <v>1260</v>
       </c>
       <c r="H58" s="8">
         <v>280</v>
@@ -5266,8 +5266,8 @@
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="8">
-        <v>494</v>
+      <c r="G76" s="12">
+        <v>496</v>
       </c>
       <c r="H76" s="8">
         <v>346</v>
@@ -5313,8 +5313,8 @@
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="8">
-        <v>522</v>
+      <c r="G77" s="12">
+        <v>524</v>
       </c>
       <c r="H77" s="8">
         <v>346</v>
@@ -5360,8 +5360,8 @@
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="8">
-        <v>564</v>
+      <c r="G78" s="12">
+        <v>566</v>
       </c>
       <c r="H78" s="8">
         <v>346</v>
@@ -5407,8 +5407,8 @@
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="8">
-        <v>522</v>
+      <c r="G79" s="12">
+        <v>524</v>
       </c>
       <c r="H79" s="8">
         <v>346</v>
@@ -5454,8 +5454,8 @@
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="8">
-        <v>581</v>
+      <c r="G80" s="12">
+        <v>583</v>
       </c>
       <c r="H80" s="8">
         <v>289</v>
@@ -5503,8 +5503,8 @@
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="8">
-        <v>651</v>
+      <c r="G81" s="12">
+        <v>653</v>
       </c>
       <c r="H81" s="8">
         <v>266</v>
@@ -5550,8 +5550,8 @@
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="8">
-        <v>592</v>
+      <c r="G82" s="12">
+        <v>594</v>
       </c>
       <c r="H82" s="8">
         <v>346</v>
@@ -5597,8 +5597,8 @@
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="8">
-        <v>650</v>
+      <c r="G83" s="12">
+        <v>652</v>
       </c>
       <c r="H83" s="8">
         <v>346</v>
@@ -5644,8 +5644,8 @@
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="8">
-        <v>709</v>
+      <c r="G84" s="12">
+        <v>711</v>
       </c>
       <c r="H84" s="8">
         <v>346</v>
@@ -5691,8 +5691,8 @@
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="8">
-        <v>592</v>
+      <c r="G85" s="12">
+        <v>594</v>
       </c>
       <c r="H85" s="8">
         <v>346</v>
@@ -5738,8 +5738,8 @@
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="8">
-        <v>626</v>
+      <c r="G86" s="12">
+        <v>628</v>
       </c>
       <c r="H86" s="8">
         <v>374</v>
@@ -5787,8 +5787,8 @@
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="8">
-        <v>646</v>
+      <c r="G87" s="12">
+        <v>648</v>
       </c>
       <c r="H87" s="8">
         <v>394</v>
@@ -5836,8 +5836,8 @@
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="8">
-        <v>709</v>
+      <c r="G88" s="12">
+        <v>711</v>
       </c>
       <c r="H88" s="8">
         <v>426</v>
@@ -5883,8 +5883,8 @@
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="8">
-        <v>709</v>
+      <c r="G89" s="12">
+        <v>711</v>
       </c>
       <c r="H89" s="8">
         <v>426</v>
@@ -5930,8 +5930,8 @@
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="8">
-        <v>720</v>
+      <c r="G90" s="12">
+        <v>722</v>
       </c>
       <c r="H90" s="8">
         <v>266</v>
@@ -5977,8 +5977,8 @@
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="8">
-        <v>964</v>
+      <c r="G91" s="12">
+        <v>966</v>
       </c>
       <c r="H91" s="8">
         <v>266</v>
@@ -6024,8 +6024,8 @@
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="8">
-        <v>778</v>
+      <c r="G92" s="12">
+        <v>780</v>
       </c>
       <c r="H92" s="8">
         <v>346</v>
@@ -6071,8 +6071,8 @@
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="8">
-        <v>1022</v>
+      <c r="G93" s="12">
+        <v>1024</v>
       </c>
       <c r="H93" s="8">
         <v>346</v>
@@ -6118,8 +6118,8 @@
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="8">
-        <v>836</v>
+      <c r="G94" s="12">
+        <v>838</v>
       </c>
       <c r="H94" s="8">
         <v>426</v>
@@ -6165,8 +6165,8 @@
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="8">
-        <v>1080</v>
+      <c r="G95" s="12">
+        <v>1082</v>
       </c>
       <c r="H95" s="8">
         <v>426</v>
@@ -6212,8 +6212,8 @@
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="8">
-        <v>1091</v>
+      <c r="G96" s="12">
+        <v>1093</v>
       </c>
       <c r="H96" s="8">
         <v>266</v>
@@ -6259,8 +6259,8 @@
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="8">
-        <v>1164</v>
+      <c r="G97" s="12">
+        <v>1166</v>
       </c>
       <c r="H97" s="8">
         <v>266</v>
@@ -6306,8 +6306,8 @@
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="8">
-        <v>1091</v>
+      <c r="G98" s="12">
+        <v>1093</v>
       </c>
       <c r="H98" s="8">
         <v>266</v>
@@ -6353,8 +6353,8 @@
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="8">
-        <v>1156</v>
+      <c r="G99" s="12">
+        <v>1158</v>
       </c>
       <c r="H99" s="8">
         <v>294</v>
@@ -6402,8 +6402,8 @@
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="8">
-        <v>1176</v>
+      <c r="G100" s="12">
+        <v>1178</v>
       </c>
       <c r="H100" s="8">
         <v>314</v>
@@ -6451,8 +6451,8 @@
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="8">
-        <v>1208</v>
+      <c r="G101" s="12">
+        <v>1210</v>
       </c>
       <c r="H101" s="8">
         <v>346</v>
@@ -6498,8 +6498,8 @@
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="8">
-        <v>1091</v>
+      <c r="G102" s="12">
+        <v>1093</v>
       </c>
       <c r="H102" s="8">
         <v>346</v>
@@ -6545,8 +6545,8 @@
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="8">
-        <v>1149</v>
+      <c r="G103" s="12">
+        <v>1151</v>
       </c>
       <c r="H103" s="8">
         <v>346</v>
@@ -6592,8 +6592,8 @@
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="8">
-        <v>1208</v>
+      <c r="G104" s="12">
+        <v>1210</v>
       </c>
       <c r="H104" s="8">
         <v>346</v>
@@ -6639,8 +6639,8 @@
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="8">
-        <v>1192</v>
+      <c r="G105" s="12">
+        <v>1194</v>
       </c>
       <c r="H105" s="8">
         <v>266</v>
@@ -6686,8 +6686,8 @@
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="8">
-        <v>1258</v>
+      <c r="G106" s="12">
+        <v>1260</v>
       </c>
       <c r="H106" s="8">
         <v>266</v>
@@ -6733,8 +6733,8 @@
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="8">
-        <v>1192</v>
+      <c r="G107" s="12">
+        <v>1194</v>
       </c>
       <c r="H107" s="8">
         <v>266</v>
@@ -6780,8 +6780,8 @@
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
-      <c r="G108" s="8">
-        <v>1240</v>
+      <c r="G108" s="12">
+        <v>1242</v>
       </c>
       <c r="H108" s="8">
         <v>220</v>
@@ -6829,8 +6829,8 @@
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
-      <c r="G109" s="8">
-        <v>1236</v>
+      <c r="G109" s="12">
+        <v>1238</v>
       </c>
       <c r="H109" s="8">
         <v>346</v>
@@ -6876,8 +6876,8 @@
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="8">
-        <v>1278</v>
+      <c r="G110" s="12">
+        <v>1280</v>
       </c>
       <c r="H110" s="8">
         <v>346</v>
@@ -6923,8 +6923,8 @@
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="8">
-        <v>1149</v>
+      <c r="G111" s="12">
+        <v>1151</v>
       </c>
       <c r="H111" s="8">
         <v>426</v>
@@ -6970,8 +6970,8 @@
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="8">
-        <v>1221</v>
+      <c r="G112" s="12">
+        <v>1223</v>
       </c>
       <c r="H112" s="8">
         <v>399</v>
@@ -7019,8 +7019,8 @@
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="8">
-        <v>1278</v>
+      <c r="G113" s="12">
+        <v>1280</v>
       </c>
       <c r="H113" s="8">
         <v>346</v>
@@ -7066,8 +7066,8 @@
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="8">
-        <v>1327</v>
+      <c r="G114" s="12">
+        <v>1329</v>
       </c>
       <c r="H114" s="8">
         <v>346</v>
@@ -7200,7 +7200,7 @@
       <c r="A117" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="12" t="s">
         <v>190</v>
       </c>
       <c r="C117" s="4"/>
@@ -7247,7 +7247,7 @@
       <c r="A118" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="12" t="s">
         <v>191</v>
       </c>
       <c r="C118" s="4"/>
@@ -7296,7 +7296,7 @@
       <c r="A119" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="12" t="s">
         <v>192</v>
       </c>
       <c r="C119" s="4"/>
@@ -7345,7 +7345,7 @@
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="12" t="s">
         <v>193</v>
       </c>
       <c r="C120" s="4"/>
@@ -7394,7 +7394,7 @@
       <c r="A121" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="12" t="s">
         <v>194</v>
       </c>
       <c r="C121" s="4"/>
@@ -7450,8 +7450,8 @@
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="8">
-        <v>1327</v>
+      <c r="G122" s="12">
+        <v>1329</v>
       </c>
       <c r="H122" s="8">
         <v>206</v>
@@ -7497,8 +7497,8 @@
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="8">
-        <v>1571</v>
+      <c r="G123" s="12">
+        <v>1573</v>
       </c>
       <c r="H123" s="8">
         <v>206</v>
@@ -7544,8 +7544,8 @@
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
-      <c r="G124" s="8">
-        <v>1327</v>
+      <c r="G124" s="12">
+        <v>1329</v>
       </c>
       <c r="H124" s="8">
         <v>266</v>
@@ -7591,8 +7591,8 @@
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="8">
-        <v>1571</v>
+      <c r="G125" s="12">
+        <v>1573</v>
       </c>
       <c r="H125" s="8">
         <v>266</v>
@@ -7740,8 +7740,8 @@
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="8">
-        <v>782</v>
+      <c r="G128" s="12">
+        <v>784</v>
       </c>
       <c r="H128" s="8">
         <v>255</v>
@@ -7783,8 +7783,8 @@
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="8">
-        <v>840</v>
+      <c r="G129" s="12">
+        <v>842</v>
       </c>
       <c r="H129" s="8">
         <v>335</v>
@@ -7826,8 +7826,8 @@
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="8">
-        <v>898</v>
+      <c r="G130" s="12">
+        <v>900</v>
       </c>
       <c r="H130" s="8">
         <v>415</v>
@@ -7869,8 +7869,8 @@
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="8">
-        <v>1389</v>
+      <c r="G131" s="12">
+        <v>1391</v>
       </c>
       <c r="H131" s="12">
         <v>195</v>
@@ -7912,8 +7912,8 @@
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="8">
-        <v>1389</v>
+      <c r="G132" s="12">
+        <v>1391</v>
       </c>
       <c r="H132" s="8">
         <v>255</v>
